--- a/design/J_技能.xlsx
+++ b/design/J_技能.xlsx
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>output</t>
   </si>
@@ -99,14 +99,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mp(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放所需蓝量(-1表示没有，是其他方式释放)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>perform_type(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,6 +112,26 @@
   </si>
   <si>
     <t>impl_name(string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,10 +609,13 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -620,10 +635,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -643,10 +661,13 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -656,12 +677,18 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -682,7 +709,6 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>

--- a/design/J_技能.xlsx
+++ b/design/J_技能.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
+    <sheet name="被动技能" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,38 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、范围内随机
+2、范围内最近随机
+3、范围内随机最远
+4、范围内所有
+5、当前攻击目标
+6、范围内人数最多</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>output</t>
   </si>
@@ -134,12 +166,67 @@
     <t>distance(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>[ [1, [1, 2]] ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风绝息斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝3格内相距最远的那个敌人刮出一道飓风，对命中的所有敌人造成击飞和晕眩效果。冲刺并斩击原目标，从而对其造成425/640/2835物理伤害（475/475/1500%+50/75/300）。将其砸到地上然后对1格内的敌人们造成225/339/1267物理伤害（300%/300%/750%）。 艾欧尼亚加成：+15%全能吸血</t>
+  </si>
+  <si>
+    <t>目标选取方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_choose_rule_and_amount(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行物速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly_speed(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行物宽度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly_width(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ [3,2],[4,-1] ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing_time(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_time(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +260,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6C7A95"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -230,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,6 +340,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,25 +624,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="38.875" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="38.875" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="11" max="13" width="33.375" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -577,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -588,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -597,28 +696,43 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -632,19 +746,34 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -658,49 +787,85 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -709,19 +874,22 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -740,8 +908,14 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -760,8 +934,14 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -780,8 +960,14 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -800,8 +986,14 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -820,8 +1012,14 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -840,8 +1038,14 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -860,8 +1064,14 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -880,8 +1090,14 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -900,8 +1116,14 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -920,8 +1142,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -940,8 +1168,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -960,8 +1194,14 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -980,8 +1220,14 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1000,8 +1246,14 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1020,8 +1272,14 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1040,8 +1298,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1060,8 +1324,14 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1080,8 +1350,14 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1100,8 +1376,14 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1120,8 +1402,14 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1140,8 +1428,14 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1160,8 +1454,14 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1180,8 +1480,14 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1200,8 +1506,14 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1220,8 +1532,14 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1240,8 +1558,14 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1260,8 +1584,14 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1280,8 +1610,14 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1300,8 +1636,14 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1320,8 +1662,14 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1340,8 +1688,14 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1360,8 +1714,14 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1380,8 +1740,14 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1400,8 +1766,14 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1420,8 +1792,14 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1440,8 +1818,14 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1460,8 +1844,14 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1480,8 +1870,14 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1500,8 +1896,14 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1520,8 +1922,14 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1540,8 +1948,14 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1560,8 +1974,14 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1580,8 +2000,14 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1600,8 +2026,14 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1620,8 +2052,14 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1640,8 +2078,14 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1660,8 +2104,14 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1680,8 +2130,14 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1700,8 +2156,14 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1720,8 +2182,14 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1740,8 +2208,14 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1760,8 +2234,14 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1780,8 +2260,14 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1800,8 +2286,14 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1820,8 +2312,14 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1840,8 +2338,14 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1860,8 +2364,14 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1880,8 +2390,14 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1900,8 +2416,14 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1920,8 +2442,14 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1940,8 +2468,14 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1960,8 +2494,14 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1980,8 +2520,14 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2000,8 +2546,14 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2020,8 +2572,14 @@
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2040,8 +2598,14 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2060,8 +2624,14 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2080,8 +2650,14 @@
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2100,8 +2676,14 @@
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2120,8 +2702,14 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2140,8 +2728,14 @@
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2160,8 +2754,14 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2180,8 +2780,14 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2200,8 +2806,14 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2220,8 +2832,14 @@
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2240,8 +2858,14 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2260,8 +2884,14 @@
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2280,8 +2910,14 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2300,8 +2936,14 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2320,8 +2962,14 @@
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2340,8 +2988,14 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2360,8 +3014,14 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2380,8 +3040,14 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2400,8 +3066,14 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2420,8 +3092,14 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2440,8 +3118,14 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2460,8 +3144,14 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2480,8 +3170,14 @@
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2500,8 +3196,14 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2520,8 +3222,14 @@
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2540,8 +3248,14 @@
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2560,8 +3274,14 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2580,8 +3300,14 @@
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2600,8 +3326,14 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2620,8 +3352,14 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2640,8 +3378,14 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2660,8 +3404,14 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2680,8 +3430,14 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2700,6 +3456,12 @@
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2707,4 +3469,85 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/J_技能.xlsx
+++ b/design/J_技能.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
     <sheet name="被动技能" sheetId="2" r:id="rId2"/>
+    <sheet name="瑞兹技能" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,16 +48,156 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+1、普攻时
+2、</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 1、范围内随机
 2、范围内最近随机
 3、范围内随机最远
 4、范围内所有
 5、当前攻击目标
-6、范围内人数最多</t>
+6、范围内人数最多
+7、范围内血量最低
+8、与目标同一方向</t>
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="M8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、蓝量
+2、攻击第三下</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、普攻时
+2、被普通攻击时
+3、受到伤害时
+4、时间流逝时
+5、定时触发
+6、血量低于某个阈值时</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="J8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、范围内随机
+2、范围内最近随机
+3、范围内随机最远
+4、范围内所有
+5、当前攻击目标
+6、范围内人数最多
+7、范围内血量最低
+8、与目标同一方向</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="184">
   <si>
     <t>output</t>
   </si>
@@ -147,19 +288,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>base_skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离</t>
+    <t>目标选取方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_choose_rule_and_amount(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly_speed(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly_width(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing_time(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_time(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登神长阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：随着你的小小英雄的升级而获得各种新的被动效果。 1级：普攻造成30/45/70额外魔法伤害。 6级：每第3次攻击发射一道焰浪，对敌人们造成30/40/60魔法伤害和3秒20%魔抗击碎效果。 9级：每次攻击发射一道焰浪并且焰浪移动得更远。 魔抗击碎：降低魔抗值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_params(map)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:-1, 6:3, 9:1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+1:{29:[-1, 30]},
+6:{29:[45]},
+9:{29:[70]}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对距离内生命值最低的敌人造成355/524/790魔法伤害。 如果这个技能击杀了该敌人，那么会将其吞噬并永久获得30/35/40最大生命值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs(map)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -167,58 +364,604 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[ [1, [1, 2]] ]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂风绝息斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝3格内相距最远的那个敌人刮出一道飓风，对命中的所有敌人造成击飞和晕眩效果。冲刺并斩击原目标，从而对其造成425/640/2835物理伤害（475/475/1500%+50/75/300）。将其砸到地上然后对1格内的敌人们造成225/339/1267物理伤害（300%/300%/750%）。 艾欧尼亚加成：+15%全能吸血</t>
-  </si>
-  <si>
-    <t>目标选取方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_choose_rule_and_amount(array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行物速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly_speed(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行物宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fly_width(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ [3,2],[4,-1] ]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吟唱时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sing_time(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_time(int)</t>
+    <t>{1:{32:[355]},2:{32:[524]},3:{32:[790]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法范围(不填则为全图)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行物速度（不填则没有）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行物宽度（不填则没有）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入一个防御姿态，获得在3秒里急速衰减的350/400/450护盾值。 当护盾消散时，对【艾瑞莉娅】周围和前方的敌人造成70/100/150魔法伤害加+30% 的已吸收伤害。 【艾欧尼亚】加成：+25护甲与魔抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra_params(map)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:30,2:35,3:40}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对邻格的敌人们造成180/270/400魔法伤害。命中第一个敌人时获得220/270/320治疗效果，并且后续每命中一个敌人就会获得额外的30治疗效果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{32:[180]},2:{32:[270]},3:{32:[400]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"first":{1:{35:[220]},2:{35:[270]},3:{35:[320]}},"extra_cure":30}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法时间(单位毫秒)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令：防卫（发条魔灵 奥莉安娜）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为生命值最低的友军提供持续4秒的225/250/325护盾值。并强化【奥莉安娜】的下次攻击以造成260/390/585额外魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{7:[350]},2:{7:[400]},3:{7:[450]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{7:[225]},2:{7:[250]},3:{32:[325]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生毒牙（魔蛇之拥 卡西奥佩娅）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前攻击目标造成170/255/385魔法伤害和持续5秒的重伤效果。如果目标已带有重伤效果，那么则造成51/77/116额外魔法伤害。 重伤：降低33%受到的治疗效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{32:[170],36:[5,0.33]},2:{32:[255],36:[5,0.33]},3:{32:[385],36:[5,0.33]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{32:[51]},2:{32:[77]},3:{32:[116]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鳄狂袭（荒漠屠夫 雷克顿）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛宴（虚空恐惧 科加斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得持续3秒的310/330/350护盾值。对当前目标造成140/210/315魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"end":{1:{32:[70]},2:{32:[100]},3:{32:[150]}}, "extra_percent":0.3, "e_buff":{4:[25],5:[25]}, "time":3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{7:[310]},2:{7:[330]},3:{7:[350]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{32:[140]},2:{32:[210]},3:{32:[315]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空召唤（虚空先知 玛尔扎哈）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前目标附近开启两道传送门。对两道门之间命中的所有敌人们造成50%护盾损毁效果和205/310/460魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{37:[0.5],32:[205]},2:{37:[0.5],32:[310]},3:{37:[0.5],32:[460]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"width":4}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美谢幕（戏命师 烬）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准当前目标并对一条直线上的敌人们造成461/692/1042物理伤害（744%/744%/744%+60/90/135）；每命中一个敌人都会使这个伤害削减40%。 艾欧尼亚加成：+20%攻击力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{33:[461]},2:{33:[692]},3:{33:[1042]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_amount(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标个数(-1为所有)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交火（沙漠玫瑰 莎弥拉）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前目标进行射击并对命中的第一个敌人造成100/150/237伤害（200%/200%/210%攻击力）。使其护甲降低10/15/20，持续到战斗结束。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:{33:[100],38:[10]},2:{33:[150],38:[15]},3:{33:[237],38:[20]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:2,2:2,3:2.1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟幕弹（法外狂徒 格雷福斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向当前目标发射烟霉弹。命中敌方英雄后爆炸，对相邻敌人造成157/235/357物理伤害并留下烟雾，被烟雾命中的敌方单位受到3/3.5/4秒冰冷效果。 冰冷:降低30%攻击速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严酷训诫（海兽祭司 俄洛伊）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前目标造成220/330/500魔法伤害和并连接灵魂5秒。在连接状态下，获得相当于目标 25%/30%/40%所受全部伤害的治疗效果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火爆飞踢！！（明烛 米利欧）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝目标踢出一个火球，造成190/285/425魔法伤害并且晕眩2秒。火球在击中敌人时会弹跳至目标身后最近的敌人，对其造成170/250/380魔法伤害，对其周围1格的敌人造成这个伤害的50%伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜朗护盾（正义巨像 加里奥）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使所受伤害降低25%/25%/35%，并在4秒里持续治疗自身300/350/400点生命值。之后，对邻格的敌人们造成200/300/450魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星坠落（众星之子 索拉卡）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定铁锤（圣锤之毅 波比）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对生命值最低的那个己方弈子提供170/190/220治疗效果，如果目标低于50%生命值，则提供额外的56/63/73治疗效果。 在接下来的5秒里，会有5颗星星命中与目标相距最近的那个敌人。每颗星星造成115/165/260魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远祖嗥叫（祖安怒兽 沃里克）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：【沃里克】普攻回复30/35/40点生命值。 主动：在接下来的2.5秒内，被动治疗量提升100%，对临格的敌人们造成1.25/1.5/2秒眩晕。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万箭齐发（寒冰射手 艾希）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈锥形发射8支箭矢，每支箭矢对命中的第一个敌人造成82/124/198物理伤害和持续2/2/2秒的冰冷效果。 冰冷：降低30%攻击速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量脉冲（虚空行者 卡萨丁）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得持续4秒的250/300/400护盾值。对一个锥形范围内的敌人造成135/200/300魔法伤害和1.5/1.75/2秒缴械效果。 缴械：无法移动或攻击，但可以施放技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔耀光（诺克萨斯统领 斯维因）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身并获得350/400/650最大生命值。在变身状态下，每秒对2格内的敌人们造成25/40/60魔法伤害。 如果已经变身，那么会获得240/280/425最大生命值并对周围的敌人造成100/160/300魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩突（岩雀 塔莉垭）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：每当一名敌人被任何东西击飞或击退时，朝该敌人投掷一颗巨石。巨石对命中的第一个敌人造成110/160/240魔法伤害。 主动：对你的当前目标造成160/240/370魔法伤害、击飞和2秒晕眩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼骨头！（暴走萝莉 金克丝）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝当前目标2格内的随机敌人们发射5枚火箭。每枚火箭弹造成93/139/223物理伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆裂护盾（皮城执法官 蔚）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得持续4秒的350/400/450护盾值。对当前目标1格内的敌人们造成120/180/270物理伤害和持续4秒的20%的护甲击碎效果。 护甲击碎：降低护甲值护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剔骨本能（百裂冥犬 纳亚菲利）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：获得15%全能吸血。 主动：造成78/122/203物理伤害。 暗裔犬牙：在施放后，召唤狗群伙伴攻击命中的第一个敌人，共造成114/176/270伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊才绝景（元素女皇 奇亚娜）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【奇亚娜】奇亚娜冲向目标对一条直线上的敌人造成180/270/424物理伤害，击飞敌人并对主要目标眩晕1.5秒，对其他敌人击飞并眩晕0.5秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌骗术（卡牌大师 崔斯特）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一张卡牌掷向当前目标并造成165/250/375魔法伤害，在1.5秒后卡牌爆炸并造成210/315/490魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强手裂颅（腕豪 瑟提）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将两侧的各一名敌人拽到一起，将其击飞。对其造成180/270/420点魔法伤害和1.25/1.5/2秒晕眩。 如果仅抓到了一个敌人，那么伤害和晕眩时长会提升50%/50%/50% 。 【艾欧尼亚】加成：+200最大生命值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂舞终乐章（琴瑟仙女 娑娜）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人最密集的位置发送一道音波，来对命中的敌人们造成105%/155%/255%魔法伤害。音波在命中友军时会为其提供持续5秒的35%/40%/45%攻击速度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射一道能量波，在碰撞时引爆，对邻格的敌人们造成170%/255%/420%魔法伤害。每第3次施放会发射3道能量波。 【艾欧尼亚】加成：+20法术强度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉耀（瓦洛兰之盾 塔里克）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得持续4秒的550/650/750护盾值。它会对邻格友军们受到的50%伤害进行重新导向。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪（不祥之刃 卡特琳娜）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向空中掷出三把匕首，落在格距离内的敌人们身边。然后，传送至每个匕首处并对临格的敌人们造成145/220/350魔法伤害和6秒重伤。 重伤：降低33%受到的治疗效果伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+诺克萨斯断头台（诺克萨斯之手 德莱厄斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前目标造成235/350/515物理伤害。如果该目标阵亡，则立刻以82%/85%/90%伤害再次施放这个技能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速激荡（未来守护者 杰斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为【杰斯】自身提供30/40/50%攻击速度，为他左边与右边的友军们提供15%攻击速度，持续3秒。对当前目标发射一道震波，震波会在命中第一个敌人时爆炸，对震波附近的敌人们造成179/268/431物理伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等离子裂变（虚空之眼 维克兹）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝当前目标发射一颗电浆弹，对命中的第一个敌人造成250/375/600点魔法伤害。然后它会分裂成两团，每团在途径一名敌人时会少造成50%伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位俯冲（时间刺客 艾克）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得相当于前4秒20%所受伤害值的治疗效果并对当前目标造成255/380/570魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒之咬（虚空遁地兽 雷克塞）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前目标造成174/261/405物理伤害。如果目标低于70%生命值，则转而造成（100+20/20/20%）真实伤害。 如果这个技能击杀了目标，那么会突破到其身后1格并治疗80/144/259（10/10/10%最大生命值）生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X形弹雨（赏金猎人 厄运小姐）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄运小姐在她的目标降下一个X型弹雨，对区域内的所有敌人共造成240/360/575魔法伤害，并施加5秒护盾损毁效果。 护盾损毁：减少35%当前和未来的护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗流涌动（深海泰坦 诺提勒斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：从所有来源获得的额外护甲和魔抗会有30%加成。 主动：在脚底召唤一个旋涡，对周围两格内的敌人造成150/225/360魔法伤害，击飞他们1.5/1.5/2秒并把他们拉到中心。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒放（万花通灵 妮蔻）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【妮蔻】猛冲至当前目标并且获得200/300/400护盾值，持续3秒。短暂延迟后下落，对两格内的敌人造成270/410/650魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰翼天翔（德玛西亚之翼 奎因）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华洛飞行穿过拥有最多敌人的行或列，标记他们并在4秒内增加他们受到的伤害10%。随后奎因发射所有被标记的目标发射一颗强化子弹，总共造成550%/555%/565%物理伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天崩地裂（德玛西亚皇子 嘉文四世）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃到附近一名敌人身上。对2格内的敌人们造成140/210/800点魔法伤害和1.75/2.25/8秒晕眩。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬灵魂（沙漠死神 内瑟斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从相距最近的4/5/9个敌人那里窃取5%/5%/15%的最大生命值，10%的攻击力，5/5/30护甲和5/5/30魔抗，持续8/8/8秒。 在强化状态下，每第三次攻击造成228/342/945物理伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍法！气合盾（暮光之眼 慎）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得350/450/2000护盾值并为2个生命值最低的友军提供225/275/1500点护盾值，这些护盾持续4秒。在为友军们提供护盾之后，【慎】的护盾会刷新并进行一次爆裂，对邻格的敌人们造成240/360/2500魔法伤害。 【艾欧尼亚】加成：8%伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：友军在攻击一个带有冰冷效果的敌人时，会造成(1.5%/1.5%/10%最大生命值)额外真实伤害。 主动：获得持续4秒的600/700/2000护盾值，对附近敌人造成160/240/1200魔法伤害和持续4秒的冰冷效果。 冰冷：降低30%攻击速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北地之怒（北地之怒 瑟庄妮）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾卡西亚暴雨（虚空之女 卡莎）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺远离所有敌人，然后发射15/15/25颗飞弹，分摊给4个相距最近的敌人们。每颗飞弹造成75/111/240魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙兵现身（沙漠皇帝 阿兹尔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：每第三次攻击，一个黄沙士兵就会对其目标造成95/140/500魔法伤害。 主动：召唤一个黄沙士兵去攻击你的目标，如果【阿兹尔】已经拥有3个黄沙士兵，那么它们会转而立刻造成74/112/385魔法伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清辉夜凝（残月之肃 厄斐琉斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝敌人最密集的位置发射一道月华震波，在抵达时对2格内的敌人们造成144/216/1013 物理伤害。 在7秒里，装备3个飞轮刃，月华震波每命中一个敌人就会提供1个额外的飞轮刃。攻击造成3.6/5.4/20x已有飞轮刃数量的额外物理伤害。 【厄斐琉斯】将获得相当于飞轮刃造成的75%伤害值的治疗效果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利刃华尔兹（无双剑姬 菲奥娜）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲奥娜变为不可被选取状态，然后击打她的目标的4个破绽。 每次击打造成她170%攻击力的物理伤害(总伤害：150/150/175 )，60/90/270额外真实伤害，并为她自身提供相当于20%已造成伤害值的治疗效果。 如果该目标阵亡，菲奥娜将把目标变更相距最近的敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之神（铁铠冥魂 莫德凯撒）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：攻击会造成100/150/375额外魔法伤害，在死亡之神激活时提升到275/415/1000 主动：获得最大生命值40%/40%/40%的护盾与1格攻击距离，持续5秒。在这个状态下，击杀敌人会偷取他们8%/8%/20%生命值、攻击力、法术强度、护甲和魔抗，持续到战斗结束。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游刃万变（不羁之悦 尼菈）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：普攻会对锥形范围内的额外2个敌人造成65/65/100%物理伤害。每3次普攻会被强化，对垂直范围内的敌人进行打击造成150/155/375物理伤害，并叠加25/25/40%攻击速度。 主动：冲刺到一个3格内的安全位置，在接下来的3秒内获得一个250/375/700的护盾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底城密谋（希尔科 希尔科）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向附近的敌人扔一个小瓶，用微光覆盖附近的一格区域，持续6/6/10秒。被微光感染的敌人每秒受到90/140/450魔法伤害。受到微光影响的盟友每秒治疗20/30/120生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽刃强袭（逆羽 霞）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞从身后召唤出7/7/12根羽毛射向她的目标，对一条直线上的敌人造成64/98/170物理伤害。每根羽毛移除它们命中的第一个目标6护甲，持续到战斗结束。 艾欧尼亚加成：普攻额外回复5点法力值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【瑞兹】的技能会基于玩家在游戏开始时选出的那个地区传送门而发生变化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡荣耀（亡灵战神 赛恩）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：在阵亡时，带着以100%生命值回光返照，每秒衰减20%/13%/0%最大生命值。【赛恩】在这个状态下无法使用技能，但免疫控制效果并获得150%攻击速度。 主动：朝4格内敌人最多的位置进行冲锋。对沿途的任何敌人造成157/246/790物理伤害、击飞和1.25/1.5/15秒晕眩。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH-3X闪电手雷（大发明家 黑默丁格）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝敌人最密集的位置投掷一颗手雷，对大范围内的敌人们造成150/225/3141/3141魔法伤害和1.5/2/15/15秒眩晕。 4星升级：是的是的，它起效了！！！！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄魂夺魄（九尾妖狐 阿狸）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窃取她当前目标周围敌人们的精魄，从而造成90/135/1000魔法伤害和破法效果。 每施放3次，释放一道波纹来对命中的所有敌人造成230/350/1888魔法伤害。这个效果会对那些精魄已经被窃取的敌人多造成33%伤害。 【艾欧尼亚】加成：+3法力每秒 破法：使最大法力值提升20%，持续到施放技能为止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搠面皇锋（虚空女皇 卑尔维斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对距离内生命值最低的敌人进行6/6/30次抽击。每次抽击造成74/114/226物理伤害和目标2%最大生命值的真实伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灭（暗裔剑魔 亚托克斯）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形12/12/30秒，从而将80%额外攻击速度转化为攻击力。在变形状态下，攻击在一个区域内造成200/300/4500物理伤害。 暗裔魔剑：获得350生命值和15%全能吸血。如果另一个弈子携带了这件武器至少5秒，那么【亚托克斯】就会在其阵亡后复活。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震畏号（海洋之灾 普朗克）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：获得50护甲和魔抗。攻击会点燃目标，在3秒里持续造成200/300/4500攻击力真实伤害。 主动：召唤一个恐惧之路的幽灵穿过棋盘，撞到的第一个敌人时，对周围2格的敌人造成450/675/9001魔法伤害。它穿过的友军会被橘子强化，获得持续4秒的30%/40%/300%攻击速度，并清除所有负面效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辟路先锋（纳祖芒荣耀 奎桑提）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得100/180/324最大生命值的治疗效果，之后击飞当前目标并将其砸到棋盘边缘，对其造成250/400/1000魔法伤害和2/2.5/10秒眩晕。对与目标碰撞的敌人们造成250/400/1000魔法伤害和1/1.25/5秒眩晕。 如果目标无法被进一步推后，那么则会将其击出棋盘。除此之外，追击该目标。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"atk_extra":{1:{32:[260]},2:{32:[390]},3:{32:[585]}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dec":0.4,"e_buff":{27:[0.2]},"extra":{1:[7.44,60],2:[7.44,90],3:[7.44,135]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距破之舞（刀锋舞者 艾瑞莉娅）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵烈焰（天启者 卡尔玛）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲境折跃（符文法师 瑞兹）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_choose_rule(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_choose_rule(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheng_yan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive_buff(map)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive_skill_cond(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +969,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +1003,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6C7A95"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -341,8 +1077,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,27 +1360,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X111"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="38.875" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="13" width="33.375" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="51.875" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="10" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="34.625" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="13" max="13" width="38.875" customWidth="1"/>
+    <col min="14" max="16" width="33.375" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -665,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -687,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -696,43 +1435,52 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -743,37 +1491,46 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s">
+      <c r="N9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -784,102 +1541,133 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="5">
-        <v>1500</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
       <c r="I11" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J11" s="5">
         <v>1</v>
       </c>
       <c r="K11" s="5">
+        <v>7</v>
+      </c>
+      <c r="L11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="5">
-        <v>2</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>16</v>
+      <c r="M11" s="5">
+        <v>1</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -888,21 +1676,46 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>500</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -914,21 +1727,44 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>500</v>
+      </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="K14" s="5">
+        <v>7</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -940,21 +1776,44 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>500</v>
+      </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="K15" s="5">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -966,21 +1825,44 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>500</v>
+      </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="K16" s="5">
+        <v>5</v>
+      </c>
+      <c r="L16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -992,21 +1874,44 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>500</v>
+      </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="K17" s="5">
+        <v>5</v>
+      </c>
+      <c r="L17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -1018,21 +1923,44 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>500</v>
+      </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -1044,21 +1972,44 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>500</v>
+      </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="K19" s="5">
+        <v>5</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -1070,11 +2021,20 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1096,11 +2056,20 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1122,11 +2091,20 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1148,11 +2126,20 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1174,11 +2161,20 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1200,11 +2196,20 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1226,11 +2231,20 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1252,11 +2266,20 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1278,11 +2301,20 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1304,11 +2336,20 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1330,11 +2371,20 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1356,11 +2406,20 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1382,11 +2441,20 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>22</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1408,11 +2476,20 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>23</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1434,11 +2511,20 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>24</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1460,11 +2546,20 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1486,11 +2581,20 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+    </row>
+    <row r="36" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>26</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1512,11 +2616,20 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>27</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1538,11 +2651,20 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+    </row>
+    <row r="38" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>28</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1564,11 +2686,20 @@
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+    </row>
+    <row r="39" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>29</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1590,11 +2721,20 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>30</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1616,11 +2756,20 @@
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+    </row>
+    <row r="41" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>31</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1642,11 +2791,20 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1668,11 +2826,20 @@
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>33</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1694,11 +2861,20 @@
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -1720,11 +2896,20 @@
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>35</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -1746,11 +2931,20 @@
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+    </row>
+    <row r="46" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>36</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1772,11 +2966,20 @@
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+    </row>
+    <row r="47" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>37</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1798,11 +3001,20 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+    </row>
+    <row r="48" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>38</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1824,11 +3036,20 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+    </row>
+    <row r="49" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>39</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -1850,11 +3071,20 @@
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+    </row>
+    <row r="50" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>40</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -1876,11 +3106,20 @@
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+    </row>
+    <row r="51" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>41</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -1902,11 +3141,20 @@
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+    </row>
+    <row r="52" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>42</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -1928,11 +3176,20 @@
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+    </row>
+    <row r="53" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>43</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -1954,11 +3211,20 @@
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+    </row>
+    <row r="54" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>44</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -1980,11 +3246,20 @@
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+    </row>
+    <row r="55" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>45</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -2006,11 +3281,20 @@
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+    </row>
+    <row r="56" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>46</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2032,11 +3316,20 @@
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+    </row>
+    <row r="57" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>47</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2058,11 +3351,20 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+    </row>
+    <row r="58" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>48</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2084,11 +3386,20 @@
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+    </row>
+    <row r="59" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>49</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -2110,11 +3421,20 @@
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+    </row>
+    <row r="60" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>50</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2136,11 +3456,20 @@
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+    </row>
+    <row r="61" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>51</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2162,11 +3491,20 @@
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+    </row>
+    <row r="62" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>52</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -2188,11 +3526,20 @@
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+    </row>
+    <row r="63" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>53</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -2214,11 +3561,20 @@
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+    </row>
+    <row r="64" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>54</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -2240,11 +3596,20 @@
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+    </row>
+    <row r="65" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>55</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -2266,11 +3631,20 @@
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+    </row>
+    <row r="66" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>56</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2292,11 +3666,20 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+    </row>
+    <row r="67" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>57</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2318,11 +3701,20 @@
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+    </row>
+    <row r="68" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>58</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -2344,8 +3736,11 @@
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2370,8 +3765,11 @@
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2396,8 +3794,11 @@
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2422,8 +3823,11 @@
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2448,8 +3852,11 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2474,8 +3881,11 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2500,8 +3910,11 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2526,8 +3939,11 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2552,8 +3968,11 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2578,8 +3997,11 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2604,8 +4026,11 @@
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2630,8 +4055,11 @@
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2656,8 +4084,11 @@
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2682,8 +4113,11 @@
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2708,8 +4142,11 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2734,8 +4171,11 @@
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2760,8 +4200,11 @@
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2786,8 +4229,11 @@
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2812,8 +4258,11 @@
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2838,8 +4287,11 @@
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2864,8 +4316,11 @@
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2890,8 +4345,11 @@
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2916,8 +4374,11 @@
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2942,8 +4403,11 @@
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2968,8 +4432,11 @@
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2994,8 +4461,11 @@
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3020,8 +4490,11 @@
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3046,8 +4519,11 @@
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3072,8 +4548,11 @@
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3098,8 +4577,11 @@
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3124,8 +4606,11 @@
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3150,8 +4635,11 @@
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3176,8 +4664,11 @@
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3202,8 +4693,11 @@
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3228,8 +4722,11 @@
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3254,8 +4751,11 @@
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3280,8 +4780,11 @@
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3306,8 +4809,11 @@
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3332,8 +4838,11 @@
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3358,8 +4867,11 @@
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3384,8 +4896,11 @@
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3410,8 +4925,11 @@
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3436,8 +4954,11 @@
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3462,6 +4983,9 @@
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3472,21 +4996,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3507,7 +5034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +5045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3529,7 +5056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3538,16 +5065,512 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="33.5" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="21.375" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>